--- a/data/KSP_Snippet.xlsx
+++ b/data/KSP_Snippet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B620868F-D805-C44C-8E76-330C9957D364}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D0CE61-3F7D-DB4A-A5D4-BD8F4BD5908F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="460" windowWidth="25480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -550,16 +550,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">{
-    ${1:note callback, executed whenever a note on message is received}
-}
-on note
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">{ ${1:executed after the init callback or whenever a snapshot has been loaded} }
 on persistence_changed
     ${2:{your code here\\}}
@@ -626,6 +616,30 @@
   <si>
     <t xml:space="preserve">{ ${1:UI update callback, executed with every GUI change in KONTAKT} }
 on ui_update
+    ${2:{your code here\\}}
+end on
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{ #region }</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>endregion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{ #endregion }</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{ {1:note callback, executed whenever a note on message is received} }
+on note
     ${2:{your code here\\}}
 end on
 </t>
@@ -1054,13 +1068,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8718881-2135-F74A-92AC-194DD2FAA27A}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1095,113 +1109,137 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>118</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>122</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1221,7 +1259,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1324,7 +1362,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="147" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1370,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
@@ -1346,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
@@ -1360,7 +1398,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
@@ -1374,7 +1412,7 @@
         <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -1388,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1402,7 +1440,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -1416,7 +1454,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
@@ -1430,7 +1468,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
@@ -1444,7 +1482,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>24</v>
@@ -1458,7 +1496,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>26</v>
@@ -1480,7 +1518,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>

--- a/data/KSP_Snippet.xlsx
+++ b/data/KSP_Snippet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D0CE61-3F7D-DB4A-A5D4-BD8F4BD5908F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C2C41-FE09-F749-847E-60A710F96FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="460" windowWidth="25480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -643,6 +643,22 @@
     ${2:{your code here\\}}
 end on
 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ui_mouse_area</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>declare ui_mouse_area $${1:variable-name}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>create a user interface mouse area</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Since 6.2.0</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1512,13 +1528,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987E9BB4-63A8-5846-B247-BA3637E731FB}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C22"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1651,58 +1667,61 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>146</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>43</v>
@@ -1710,57 +1729,71 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>96</v>
       </c>
     </row>

--- a/data/KSP_Snippet.xlsx
+++ b/data/KSP_Snippet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792C2C41-FE09-F749-847E-60A710F96FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2966FE-7C87-054A-A706-BF2DB38DF1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="460" windowWidth="25480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Original　Snippet'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Statement!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -523,17 +523,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">{ ${1:initialization callback, executed when the script was successfully analyzed} }
-on init
-    make_perfview
-    message( "" )
-    set_script_title( "${2:title}" )
-    ${3:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">{ ${1:listener callback, executed at definable time intervals or whenever a transport command is received} }
 on listener
     ${2:{your code here\\}}
@@ -659,6 +648,15 @@
   </si>
   <si>
     <t>Since 6.2.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">on init
+    make_perfview
+    message( "" )
+    set_script_title( "title" )
+end on
+</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1125,25 +1123,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -1275,7 +1273,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1336,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="168" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -1358,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>8</v>
@@ -1372,7 +1370,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>86</v>
@@ -1386,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
@@ -1400,7 +1398,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
@@ -1414,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
@@ -1428,7 +1426,7 @@
         <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -1442,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1456,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -1470,7 +1468,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
@@ -1484,7 +1482,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
@@ -1498,7 +1496,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>24</v>
@@ -1512,7 +1510,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>26</v>
@@ -1667,19 +1665,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/KSP_Snippet.xlsx
+++ b/data/KSP_Snippet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2966FE-7C87-054A-A706-BF2DB38DF1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48039EF-C83A-3C47-AE25-D04450075C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="460" windowWidth="25480" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="480" windowWidth="25480" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original　Snippet" sheetId="2" r:id="rId1"/>
@@ -627,14 +627,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">{ {1:note callback, executed whenever a note on message is received} }
-on note
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ui_mouse_area</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -655,6 +647,14 @@
     make_perfview
     message( "" )
     set_script_title( "title" )
+end on
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:note callback, executed whenever a note on message is received} }
+on note
+    ${2:{your code here\\}}
 end on
 </t>
     <phoneticPr fontId="3"/>
@@ -1084,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8718881-2135-F74A-92AC-194DD2FAA27A}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
@@ -1269,11 +1269,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EE9F55-C705-D247-85F2-91FAB07DF15A}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -1342,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -1384,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
@@ -1665,19 +1665,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/KSP_Snippet.xlsx
+++ b/data/KSP_Snippet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48039EF-C83A-3C47-AE25-D04450075C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A5BE4F-AD27-0941-85CC-AC66396BE7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="480" windowWidth="25480" windowHeight="17540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original　Snippet" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="173">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -657,6 +657,22 @@
     ${2:{your code here\\}}
 end on
 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>on ui_controls</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:Global UI callback, executed whenever the user interacts with any particular UI widget.} }
+on ui_controls
+    ${2:{your code here\\}}
+end on
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Global UI callback, executed whenever the user interacts with any particular UI widget.</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -761,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -796,8 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1091,7 +1106,7 @@
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
@@ -1099,7 +1114,7 @@
     <col min="4" max="4" width="76.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -1113,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>88</v>
       </c>
@@ -1121,7 +1136,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>160</v>
       </c>
@@ -1133,7 +1148,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
@@ -1145,7 +1160,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>116</v>
       </c>
@@ -1159,7 +1174,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>119</v>
       </c>
@@ -1173,7 +1188,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>123</v>
       </c>
@@ -1187,7 +1202,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>126</v>
       </c>
@@ -1201,7 +1216,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>130</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>133</v>
       </c>
@@ -1229,7 +1244,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>137</v>
       </c>
@@ -1243,7 +1258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>140</v>
       </c>
@@ -1267,16 +1282,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EE9F55-C705-D247-85F2-91FAB07DF15A}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="10" bestFit="1" customWidth="1"/>
@@ -1284,7 +1299,7 @@
     <col min="4" max="4" width="207.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -1298,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>90</v>
       </c>
@@ -1306,7 +1321,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="114" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>87</v>
       </c>
@@ -1376,7 +1391,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1390,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
@@ -1404,7 +1419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>115</v>
       </c>
@@ -1432,7 +1447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1460,7 +1475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>19</v>
       </c>
@@ -1474,7 +1489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
@@ -1488,7 +1503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1502,7 +1517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1514,6 +1529,20 @@
       </c>
       <c r="D17" s="8" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="95" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1564,7 @@
       <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
@@ -1543,7 +1572,7 @@
     <col min="4" max="4" width="130.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -1557,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -1565,7 +1594,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -1579,7 +1608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -1607,7 +1636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1621,7 +1650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -1635,7 +1664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
@@ -1649,7 +1678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
@@ -1663,7 +1692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>164</v>
       </c>
@@ -1676,11 +1705,11 @@
       <c r="D15" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>144</v>
       </c>
@@ -1693,11 +1722,11 @@
       <c r="D16" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1711,7 +1740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1725,7 +1754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -1739,7 +1768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
@@ -1753,7 +1782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>47</v>
       </c>
@@ -1767,7 +1796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
@@ -1781,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>95</v>
       </c>
@@ -1814,7 +1843,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
@@ -1822,7 +1851,7 @@
     <col min="4" max="4" width="45.28515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -1836,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>91</v>
       </c>
@@ -1844,7 +1873,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -1858,7 +1887,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
@@ -1872,7 +1901,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="76" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1886,7 +1915,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
@@ -1900,7 +1929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>58</v>
       </c>
@@ -1914,7 +1943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>62</v>
       </c>
@@ -1928,7 +1957,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
@@ -1942,7 +1971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>70</v>
       </c>
@@ -1956,7 +1985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
@@ -1970,7 +1999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>78</v>
       </c>
@@ -1984,7 +2013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>82</v>
       </c>

--- a/data/KSP_Snippet.xlsx
+++ b/data/KSP_Snippet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A5BE4F-AD27-0941-85CC-AC66396BE7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AD0654-1928-3243-B430-BFAF4BA1C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-42860" yWindow="-10420" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original　Snippet" sheetId="2" r:id="rId1"/>
@@ -371,26 +371,6 @@
     <t>declare ui_xy ?$${1:variable-name}[ ${2:num-of-elements} ]</t>
   </si>
   <si>
-    <t>if( ${1:condition} )
-    ${2:{your code here\\}}
-end if</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>if( ${1:condition} )
-    ${2:{your code here\\}}
-else
-    ${3:{your code here\\}}
-end if</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>while( ${1:condition} )
-    ${2:{your code here\\}}
-end while</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>declare ui_label $${1:variable-name}( ${2:width}, ${3:height} )</t>
   </si>
   <si>
@@ -400,13 +380,6 @@
     <t>declare ui_waveform $${1:variable-name}( ${2:width}, ${3:height} )</t>
   </si>
   <si>
-    <t>select( ${1:variable} )
-    case ${2:case}
-        ${3:{your code here\\}}
-end select</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>on _pgs_changed</t>
   </si>
   <si>
@@ -504,110 +477,6 @@
   </si>
   <si>
     <t>create a user interface panel</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:async complete callback, triggered after the execution of any load/save command} }
-on async_complete
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:MIDI controller callback, executed whenever a CC, pitch bend or channel pressure message is received} }
-on controller
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:listener callback, executed at definable time intervals or whenever a transport command is received} }
-on listener
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:midi callback, triggered by every incoming MIDI event} }
-on midi_in
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:executed after the init callback or whenever a snapshot has been loaded} }
-on persistence_changed
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:executed whenever any pgs_set_key_val() command is executed in any script} }
-on pgs_changed
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:executed whenever any pgs_set_key_val() command is executed in any script} }
-on _pgs_changed
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:polyphonic aftertouch callback, executed whenever a polyphonic aftertouch message is received} }
-on poly_at
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:release callback, executed whenever a note off message is received} }
-on release
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:rpn(registered parameter number) callback message is received} }
-on rpn
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:nrpn(unregistered parameter number) callback message is received} }
-on nrpn
-    ${2:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:UI callback, executed whenever the user changes the respective UI element} }
-on ui_control( $${2:uiVariable} )
-    ${3:{your code here\\}}
-end on
-</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:UI update callback, executed with every GUI change in KONTAKT} }
-on ui_update
-    ${2:{your code here\\}}
-end on
-</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -652,28 +521,140 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>on ui_controls</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Global UI callback, executed whenever the user interacts with any particular UI widget.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:async complete callback, triggered after the execution of any load/save command} }
+on async_complete
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:MIDI controller callback, executed whenever a CC, pitch bend or channel pressure message is received} }
+on controller
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:listener callback, executed at definable time intervals or whenever a transport command is received} }
+on listener
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:midi callback, triggered by every incoming MIDI event} }
+on midi_in
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">{ ${1:note callback, executed whenever a note on message is received} }
 on note
-    ${2:{your code here\\}}
+    ${2:{your code here\}}
 end on
 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>on ui_controls</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:executed after the init callback or whenever a snapshot has been loaded} }
+on persistence_changed
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:executed whenever any pgs_set_key_val() command is executed in any script} }
+on pgs_changed
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:executed whenever any pgs_set_key_val() command is executed in any script} }
+on _pgs_changed
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:polyphonic aftertouch callback, executed whenever a polyphonic aftertouch message is received} }
+on poly_at
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:release callback, executed whenever a note off message is received} }
+on release
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:rpn(registered parameter number) callback message is received} }
+on rpn
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:nrpn(unregistered parameter number) callback message is received} }
+on nrpn
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:UI callback, executed whenever the user changes the respective UI element} }
+on ui_control( $${2:uiVariable} )
+    ${3:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:UI update callback, executed with every GUI change in KONTAKT} }
+on ui_update
+    ${2:{your code here\}}
+end on
+</t>
   </si>
   <si>
     <t xml:space="preserve">{ ${1:Global UI callback, executed whenever the user interacts with any particular UI widget.} }
 on ui_controls
-    ${2:{your code here\\}}
+    ${2:{your code here\}}
 end on
 </t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Global UI callback, executed whenever the user interacts with any particular UI widget.</t>
-    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>if( ${1:condition} )
+    ${2:{your code here\}}
+end if</t>
+  </si>
+  <si>
+    <t>if( ${1:condition} )
+    ${2:{your code here\}}
+else
+    ${3:{your code here\}}
+end if</t>
+  </si>
+  <si>
+    <t>select( ${1:variable} )
+    case ${2:case}
+        ${3:{your code here\}}
+end select</t>
+  </si>
+  <si>
+    <t>while( ${1:condition} )
+    ${2:{your code here\}}
+end while</t>
   </si>
 </sst>
 </file>
@@ -1138,138 +1119,138 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1284,11 +1265,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EE9F55-C705-D247-85F2-91FAB07DF15A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>2</v>
@@ -1343,7 +1324,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>4</v>
@@ -1357,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>6</v>
@@ -1371,7 +1352,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>8</v>
@@ -1385,7 +1366,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>86</v>
@@ -1399,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
@@ -1413,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
@@ -1427,7 +1408,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
@@ -1435,13 +1416,13 @@
     </row>
     <row r="11" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
@@ -1455,7 +1436,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1469,7 +1450,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>18</v>
@@ -1483,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>20</v>
@@ -1497,7 +1478,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
@@ -1511,7 +1492,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>24</v>
@@ -1525,7 +1506,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>26</v>
@@ -1533,16 +1514,16 @@
     </row>
     <row r="18" spans="1:4" ht="95" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>35</v>
@@ -1694,36 +1675,36 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,7 +1743,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>43</v>
@@ -1804,7 +1785,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>50</v>
@@ -1881,7 +1862,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>52</v>
@@ -1895,7 +1876,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>54</v>
@@ -1909,7 +1890,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>52</v>
@@ -1923,7 +1904,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>57</v>

--- a/data/KSP_Snippet.xlsx
+++ b/data/KSP_Snippet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AD0654-1928-3243-B430-BFAF4BA1C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A12481B-9776-4B01-A89E-E123B656F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42860" yWindow="-10420" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="26016" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original　Snippet" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="175">
   <si>
     <t>description</t>
     <phoneticPr fontId="3"/>
@@ -557,111 +557,123 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">{ ${1:executed after the init callback or whenever a snapshot has been loaded} }
+on persistence_changed
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:executed whenever any pgs_set_key_val() command is executed in any script} }
+on pgs_changed
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:executed whenever any pgs_set_key_val() command is executed in any script} }
+on _pgs_changed
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:polyphonic aftertouch callback, executed whenever a polyphonic aftertouch message is received} }
+on poly_at
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:release callback, executed whenever a note off message is received} }
+on release
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:rpn(registered parameter number) callback message is received} }
+on rpn
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:nrpn(unregistered parameter number) callback message is received} }
+on nrpn
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:UI callback, executed whenever the user changes the respective UI element} }
+on ui_control( $${2:uiVariable} )
+    ${3:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:UI update callback, executed with every GUI change in KONTAKT} }
+on ui_update
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{ ${1:Global UI callback, executed whenever the user interacts with any particular UI widget.} }
+on ui_controls
+    ${2:{your code here\}}
+end on
+</t>
+  </si>
+  <si>
+    <t>if( ${1:condition} )
+    ${2:{your code here\}}
+end if</t>
+  </si>
+  <si>
+    <t>if( ${1:condition} )
+    ${2:{your code here\}}
+else
+    ${3:{your code here\}}
+end if</t>
+  </si>
+  <si>
+    <t>select( ${1:variable} )
+    case ${2:case}
+        ${3:{your code here\}}
+end select</t>
+  </si>
+  <si>
+    <t>while( ${1:condition} )
+    ${2:{your code here\}}
+end while</t>
+  </si>
+  <si>
+    <t>on note_controller</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t xml:space="preserve">{ ${1:note callback, executed whenever a note on message is received} }
 on note
     ${2:{your code here\}}
 end on
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:executed after the init callback or whenever a snapshot has been loaded} }
-on persistence_changed
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{ ${1:MIDI 2.0 per-note controller callback, executed whenever a MIDI 2.0 Per-Note RPN, MIDI 2.0 Per-Note NRPN or MIDI 2.0 Per-Note Pitch Bend message is received.} }
+on note_controller
     ${2:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:executed whenever any pgs_set_key_val() command is executed in any script} }
-on pgs_changed
-    ${2:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:executed whenever any pgs_set_key_val() command is executed in any script} }
-on _pgs_changed
-    ${2:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:polyphonic aftertouch callback, executed whenever a polyphonic aftertouch message is received} }
-on poly_at
-    ${2:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:release callback, executed whenever a note off message is received} }
-on release
-    ${2:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:rpn(registered parameter number) callback message is received} }
-on rpn
-    ${2:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:nrpn(unregistered parameter number) callback message is received} }
-on nrpn
-    ${2:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:UI callback, executed whenever the user changes the respective UI element} }
-on ui_control( $${2:uiVariable} )
-    ${3:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:UI update callback, executed with every GUI change in KONTAKT} }
-on ui_update
-    ${2:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ ${1:Global UI callback, executed whenever the user interacts with any particular UI widget.} }
-on ui_controls
-    ${2:{your code here\}}
-end on
-</t>
-  </si>
-  <si>
-    <t>if( ${1:condition} )
-    ${2:{your code here\}}
-end if</t>
-  </si>
-  <si>
-    <t>if( ${1:condition} )
-    ${2:{your code here\}}
-else
-    ${3:{your code here\}}
-end if</t>
-  </si>
-  <si>
-    <t>select( ${1:variable} )
-    case ${2:case}
-        ${3:{your code here\}}
-end select</t>
-  </si>
-  <si>
-    <t>while( ${1:condition} )
-    ${2:{your code here\}}
-end while</t>
+end on</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1087,15 +1099,15 @@
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.7265625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>88</v>
       </c>
@@ -1117,7 +1129,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>143</v>
       </c>
@@ -1129,7 +1141,7 @@
       </c>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>145</v>
       </c>
@@ -1141,7 +1153,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>112</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
         <v>115</v>
       </c>
@@ -1169,7 +1181,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>119</v>
       </c>
@@ -1183,7 +1195,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>122</v>
       </c>
@@ -1197,7 +1209,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>126</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>129</v>
       </c>
@@ -1225,7 +1237,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>133</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>136</v>
       </c>
@@ -1263,24 +1275,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EE9F55-C705-D247-85F2-91FAB07DF15A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="207.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="207.54296875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -1294,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
         <v>90</v>
       </c>
@@ -1302,7 +1314,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="99">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1316,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="99">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="114" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="118.8">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="99">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="99">
       <c r="A7" s="8" t="s">
         <v>87</v>
       </c>
@@ -1372,7 +1384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="99">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -1380,149 +1392,161 @@
         <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="95" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="99">
       <c r="A9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="99">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="99">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="95" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="95" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="95" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="99">
       <c r="A12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="99">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="99">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="95" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="99">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="95" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="99">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="95" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="99">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="95" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="99">
+      <c r="A18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="95" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="99">
+      <c r="A19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="95" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1545,15 +1569,15 @@
       <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="10" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="130.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="130.1796875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -1567,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -1575,7 +1599,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -1589,7 +1613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1603,7 +1627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -1617,7 +1641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1631,7 +1655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -1645,7 +1669,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
@@ -1659,7 +1683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
@@ -1673,7 +1697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
         <v>147</v>
       </c>
@@ -1690,7 +1714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
         <v>140</v>
       </c>
@@ -1707,7 +1731,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>40</v>
       </c>
@@ -1721,7 +1745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -1735,7 +1759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -1749,7 +1773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
@@ -1763,7 +1787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>47</v>
       </c>
@@ -1777,7 +1801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
@@ -1791,7 +1815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>95</v>
       </c>
@@ -1824,15 +1848,15 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.28515625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.26953125" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.26953125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -1846,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
         <v>91</v>
       </c>
@@ -1854,7 +1878,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="59.4">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -1862,13 +1886,13 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="99">
       <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
@@ -1876,13 +1900,13 @@
         <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="79.2">
       <c r="A5" s="8" t="s">
         <v>55</v>
       </c>
@@ -1890,13 +1914,13 @@
         <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="59.4">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
@@ -1904,13 +1928,13 @@
         <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>58</v>
       </c>
@@ -1924,7 +1948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>62</v>
       </c>
@@ -1938,7 +1962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
@@ -1952,7 +1976,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
         <v>70</v>
       </c>
@@ -1966,7 +1990,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>74</v>
       </c>
@@ -1980,7 +2004,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>78</v>
       </c>
@@ -1994,7 +2018,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>82</v>
       </c>
